--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
